--- a/rules/dictionary_rules.xlsx
+++ b/rules/dictionary_rules.xlsx
@@ -20,15 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="65">
   <si>
     <t xml:space="preserve">name</t>
   </si>
   <si>
     <t xml:space="preserve">unicode_repr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id</t>
   </si>
   <si>
     <t xml:space="preserve">descriptors</t>
@@ -232,6 +229,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -313,16 +311,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N19" activeCellId="0" sqref="N19"/>
+      <selection pane="topLeft" activeCell="I24" activeCellId="0" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1023" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -338,526 +336,412 @@
       <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>7</v>
+      <c r="D2" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>7</v>
+      <c r="D3" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>7</v>
+      <c r="D4" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>7</v>
+      <c r="D5" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>7</v>
+      <c r="D6" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>7</v>
+      <c r="D7" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>7</v>
+      <c r="D8" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>7</v>
+      <c r="D9" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>7</v>
+      <c r="D10" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>7</v>
+      <c r="D11" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>7</v>
+      <c r="D12" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>7</v>
+      <c r="D13" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>7</v>
+      <c r="D14" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>7</v>
+      <c r="D15" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>7</v>
+      <c r="D16" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>7</v>
+      <c r="D17" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="0" t="n">
-        <v>17</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>34</v>
+      <c r="D18" s="0" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>34</v>
+        <v>32</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="0" t="n">
-        <v>19</v>
-      </c>
-      <c r="E20" s="0" t="s">
-        <v>34</v>
+        <v>32</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E21" s="0" t="s">
-        <v>34</v>
+        <v>32</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="0" t="n">
-        <v>21</v>
-      </c>
-      <c r="E22" s="0" t="s">
-        <v>34</v>
+      <c r="D22" s="0" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23" s="0" t="n">
-        <v>22</v>
-      </c>
-      <c r="E23" s="0" t="s">
-        <v>34</v>
+      <c r="D23" s="0" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="B24" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="C24" s="0" t="n">
-        <v>23</v>
-      </c>
-      <c r="E24" s="0" t="s">
-        <v>34</v>
+      <c r="D24" s="0" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="C25" s="0" t="n">
-        <v>24</v>
-      </c>
-      <c r="E25" s="0" t="s">
-        <v>34</v>
+      <c r="D25" s="0" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="B26" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="C26" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="E26" s="0" t="s">
-        <v>34</v>
+      <c r="D26" s="0" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="C27" s="0" t="n">
-        <v>26</v>
-      </c>
-      <c r="E27" s="0" t="s">
-        <v>34</v>
+        <v>46</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="C28" s="0" t="n">
-        <v>27</v>
-      </c>
-      <c r="E28" s="0" t="s">
-        <v>34</v>
+        <v>46</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="C29" s="0" t="n">
-        <v>28</v>
-      </c>
-      <c r="E29" s="0" t="s">
-        <v>34</v>
+        <v>46</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="B30" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="C30" s="0" t="n">
-        <v>29</v>
-      </c>
-      <c r="E30" s="0" t="s">
-        <v>34</v>
+      <c r="D30" s="0" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B31" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="C31" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="E31" s="0" t="s">
-        <v>34</v>
+      <c r="D31" s="0" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="B32" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="B32" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="C32" s="0" t="n">
-        <v>31</v>
-      </c>
-      <c r="E32" s="0" t="s">
-        <v>34</v>
+      <c r="D32" s="0" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="B33" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="B33" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="C33" s="0" t="n">
-        <v>32</v>
-      </c>
-      <c r="E33" s="0" t="s">
-        <v>34</v>
+      <c r="D33" s="0" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B34" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="B34" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="C34" s="0" t="n">
-        <v>33</v>
-      </c>
-      <c r="E34" s="0" t="s">
-        <v>34</v>
+      <c r="D34" s="0" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B35" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="B35" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="C35" s="0" t="n">
-        <v>34</v>
-      </c>
-      <c r="E35" s="0" t="s">
-        <v>34</v>
+      <c r="D35" s="0" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B36" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="B36" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="C36" s="0" t="n">
-        <v>35</v>
-      </c>
-      <c r="E36" s="0" t="s">
-        <v>34</v>
+      <c r="D36" s="0" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="C37" s="0" t="n">
-        <v>36</v>
-      </c>
-      <c r="E37" s="0" t="s">
-        <v>34</v>
+        <v>24</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B38" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="B38" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="C38" s="0" t="n">
-        <v>37</v>
-      </c>
-      <c r="E38" s="0" t="s">
-        <v>34</v>
+      <c r="D38" s="0" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
